--- a/ClientExcel/GameHotfix/Guide.xlsx
+++ b/ClientExcel/GameHotfix/Guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11655"/>
+    <workbookView windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>#</t>
   </si>
@@ -38,16 +38,25 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>NextId</t>
   </si>
   <si>
     <t>Int32</t>
   </si>
   <si>
+    <t>String</t>
+  </si>
+  <si>
     <t>步骤编号</t>
   </si>
   <si>
     <t>策划备注</t>
+  </si>
+  <si>
+    <t>步骤名称</t>
   </si>
   <si>
     <t>下一步的编号</t>
@@ -1004,19 +1013,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="7" width="23.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="1" customWidth="1"/>
-    <col min="9" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="21.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="8" width="23.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="1" customWidth="1"/>
+    <col min="10" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="21.875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1027,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,40 +1046,50 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:9">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
